--- a/templates/fond.xlsx
+++ b/templates/fond.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/alexweb/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C22D0C2-73D9-1246-A826-3B823D0D7B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D066534-BA39-444F-9DC3-5A3F797E4FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="17140" windowWidth="27240" windowHeight="16440" xr2:uid="{28FF447B-603C-3349-990E-C967456268F3}"/>
+    <workbookView xWindow="41600" yWindow="19400" windowWidth="27240" windowHeight="16440" xr2:uid="{28FF447B-603C-3349-990E-C967456268F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="fund 1" sheetId="1" r:id="rId1"/>
+    <sheet name="fund {id}" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Comments</t>
   </si>
@@ -77,9 +77,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>accessed:</t>
-  </si>
-  <si>
     <t>source:</t>
   </si>
   <si>
@@ -89,32 +86,38 @@
     <t>{lastmod}</t>
   </si>
   <si>
-    <t>Archives / {archive_name} / {fond_name}</t>
-  </si>
-  <si>
     <t>{description}</t>
   </si>
   <si>
-    <t>{col1:linked}</t>
+    <t>{col[0]:linked}</t>
   </si>
   <si>
-    <t>{col2:linked}</t>
+    <t>{col[1]:linked}</t>
   </si>
   <si>
-    <t>{col3}</t>
+    <t>{col[2]}</t>
   </si>
   <si>
-    <t>{count}</t>
+    <t>{rollup:sum}</t>
   </si>
   <si>
-    <t>{sum}</t>
+    <t>{rollup:rows}</t>
+  </si>
+  <si>
+    <t>Archives / {parent.id} / {id}</t>
+  </si>
+  <si>
+    <t>last changed:</t>
+  </si>
+  <si>
+    <t>{col}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,12 +134,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -185,6 +182,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -212,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,6 +259,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -263,16 +287,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -290,53 +311,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -679,14 +703,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="55.5" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
@@ -695,90 +720,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>17</v>
+      <c r="A1" s="23" t="s">
+        <v>22</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="1:31" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>18</v>
+      <c r="A2" s="18" t="s">
+        <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
@@ -805,17 +830,17 @@
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
+      <c r="D4" s="26" t="s">
+        <v>23</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>16</v>
+      <c r="E4" s="13" t="s">
+        <v>15</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="2"/>
@@ -843,13 +868,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="3"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -872,43 +897,43 @@
       <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
@@ -931,25 +956,45 @@
       <c r="AE6" s="1"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
+      <c r="D7" s="24" t="s">
+        <v>24</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>21</v>
+      <c r="E7" s="24" t="s">
+        <v>24</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
+      <c r="F7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -974,14 +1019,14 @@
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1004,34 +1049,34 @@
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
+      <c r="E9" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
+      <c r="F9" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
+      <c r="G9" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>23</v>
+      <c r="H9" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>23</v>
+      <c r="I9" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>23</v>
+      <c r="J9" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>23</v>
+      <c r="K9" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>23</v>
+      <c r="L9" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="1"/>
@@ -30789,8 +30834,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://uk.wikisource.org/wiki/Архів:ДАЖО/1" xr:uid="{3FF1C3C7-71FE-6C47-A1AC-A2846759C9AB}"/>
-    <hyperlink ref="A7" r:id="rId2" display="https://uk.wikisource.org/wiki/%D0%90%D1%80%D1%85%D1%96%D0%B2:%D0%94%D0%90%D0%96%D0%9E/1/1" xr:uid="{8EB69834-B7C1-E042-A57B-4C7D827DEE2D}"/>
-    <hyperlink ref="B7" r:id="rId3" display="Decrees, reports, messages, resolutions of the Synod and the Volyn Spiritual Consistory. Requests, reports, complaints of peasants and clergy of the diocese. About the seizure of church lands by landowners. Cases of ordination of priests and clergy. On th" xr:uid="{C47D204E-2155-3A43-9CCF-930B5A4B612C}"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://uk.wikisource.org/wiki/%D0%90%D1%80%D1%85%D1%96%D0%B2:%D0%94%D0%90%D0%96%D0%9E/1" xr:uid="{E118B3EE-5239-8F41-B1C2-22AAAFD787F6}"/>
+    <hyperlink ref="B7" r:id="rId3" display="Volyn Spiritual Consistory of Zhytomyr, Volyn Province. 1741 - 1921" xr:uid="{1E8F6F38-D05F-BA49-A11A-AEF9C835E182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/templates/fond.xlsx
+++ b/templates/fond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/alexweb/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D066534-BA39-444F-9DC3-5A3F797E4FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C9E41B-2C8D-B249-9BE6-1292BADC3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41600" yWindow="19400" windowWidth="27240" windowHeight="16440" xr2:uid="{28FF447B-603C-3349-990E-C967456268F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Comments</t>
   </si>
@@ -107,17 +107,29 @@
     <t>Archives / {parent.id} / {id}</t>
   </si>
   <si>
-    <t>last changed:</t>
+    <t>{col}</t>
   </si>
   <si>
-    <t>{col}</t>
+    <t>{edit:added}</t>
+  </si>
+  <si>
+    <t>{edit:changed}</t>
+  </si>
+  <si>
+    <t>{refmod}</t>
+  </si>
+  <si>
+    <t>ref. version:</t>
+  </si>
+  <si>
+    <t>version:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +208,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +238,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE5E5E5"/>
         <bgColor rgb="FFE5E5E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -364,6 +394,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,7 +739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -808,7 +844,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -831,13 +869,17 @@
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
       <c r="D4" s="26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -845,7 +887,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -966,34 +1010,34 @@
         <v>19</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
